--- a/res.xlsx
+++ b/res.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>Graph</t>
   </si>
@@ -125,6 +125,33 @@
   </si>
   <si>
     <t>Sorted data</t>
+  </si>
+  <si>
+    <t>Вершины</t>
+  </si>
+  <si>
+    <t>Разрез</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Итерации</t>
+  </si>
+  <si>
+    <t>Лучшее</t>
+  </si>
+  <si>
+    <t>Худшее</t>
+  </si>
+  <si>
+    <t>Среднее</t>
+  </si>
+  <si>
+    <t>СтдОткл</t>
+  </si>
+  <si>
+    <t>Отношение результатов мод./базовый</t>
   </si>
 </sst>
 </file>
@@ -455,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -680,6 +707,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -725,7 +783,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -738,6 +796,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -747,8 +807,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1247,11 +1315,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134876672"/>
-        <c:axId val="233343232"/>
+        <c:axId val="196612608"/>
+        <c:axId val="187934400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134876672"/>
+        <c:axId val="196612608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1348,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233343232"/>
+        <c:crossAx val="187934400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1288,7 +1356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233343232"/>
+        <c:axId val="187934400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,7 +1386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134876672"/>
+        <c:crossAx val="196612608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1787,11 +1855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="226969088"/>
-        <c:axId val="143981888"/>
+        <c:axId val="203287040"/>
+        <c:axId val="187936704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="226969088"/>
+        <c:axId val="203287040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143981888"/>
+        <c:crossAx val="187936704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1828,7 +1896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143981888"/>
+        <c:axId val="187936704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,7 +1931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226969088"/>
+        <c:crossAx val="203287040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2328,11 +2396,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="227159552"/>
-        <c:axId val="297405248"/>
+        <c:axId val="203288064"/>
+        <c:axId val="187938432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227159552"/>
+        <c:axId val="203288064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,7 +2429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="297405248"/>
+        <c:crossAx val="187938432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2369,7 +2437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="297405248"/>
+        <c:axId val="187938432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2467,859 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227159552"/>
+        <c:crossAx val="203288064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>Разрез модифированного </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> Разрез базового</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1'!$AB$2:$AB$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>12753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51310</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69430</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71077</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>147606</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>161571</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>183485</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>185496</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210614</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>522483</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>630803</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>698340</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>844333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>917945</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>952508</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1010322</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1011663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1291932</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1360218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1'!$E$37:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>4.2229038854805729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3216783216783199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9403829416884246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3852631578947365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9246537396121883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8643724696356276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8843128181397502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1881631690639001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5373291272344902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8709077380952381</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8706368072063055</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6775930695387498</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5023255813953487</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3775254954781606</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1663519825101858</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.2908745247148286</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5155683514608658</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.7251474765129995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.566364247311828</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6158931895500352</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6558037882467218</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9719108362324442</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2360855244794284</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7517995382316991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6465898432265844</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0246057074140882</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6759852541033968</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2215910273217221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="143108096"/>
+        <c:axId val="268177920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="143108096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество вершин</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44983447471364918"/>
+              <c:y val="0.93445696756103258"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="268177920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="268177920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143108096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>Время модифицированного</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> / </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>Время базового</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Время</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1'!$AB$2:$AB$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>12753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51310</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69430</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71077</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>147606</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>161571</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>183485</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>185496</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210614</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>522483</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>630803</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>698340</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>844333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>917945</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>952508</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1010322</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1011663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1291932</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1360218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1'!$F$37:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.96897810218978098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0977366255144032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1187438665358194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9574468085106382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46575716234652115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2799772144688124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7840481565086532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3323092677931387</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.332793334876186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9019427872112591</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91343626806833111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4207024601578215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2305685967657798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2233140759138275</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1690130184680592</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5930223563085015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0745027022438527</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96549363275366284</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66829354169319855</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.60486141784452296</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.53966942148760333</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.79924701074617832</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54834251706881043</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8327122499965107</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1371208661210983</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3146739041309303</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.69689781736071998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.87815294274656341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Итерации</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'1'!$AB$2:$AB$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>12753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51310</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53396</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69430</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71077</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>147606</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>161571</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>183485</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>185496</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210614</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>522483</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>630803</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>698340</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>844333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>917945</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>952508</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1010322</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1011663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1291932</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1360218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1'!$G$37:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3529411764705883</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94736842105263153</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97560975609756095</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68181818181818177</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61904761904761907</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52380952380952384</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8181818181818181</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3076923076923077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88235294117647056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="170499584"/>
+        <c:axId val="234707712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="170499584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество вершин</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="234707712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="234707712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170499584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2512,6 +3432,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>141514</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>332014</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>46263</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>223158</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2807,10 +3791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK69"/>
+  <dimension ref="A1:AP109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2818,7 +3802,7 @@
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2847,18 +3831,18 @@
       <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="14"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="16"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2887,7 +3871,7 @@
       <c r="J2" s="3">
         <v>10</v>
       </c>
-      <c r="AB2" s="15">
+      <c r="AB2" s="12">
         <v>12753</v>
       </c>
       <c r="AC2" s="11">
@@ -2909,8 +3893,20 @@
       <c r="AI2" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN2" s="11">
+        <f>H2/D2</f>
+        <v>4.2229038854805729</v>
+      </c>
+      <c r="AO2" s="11">
+        <f>I2/E2</f>
+        <v>0.96897810218978098</v>
+      </c>
+      <c r="AP2" s="11">
+        <f>J2/F2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2939,7 +3935,7 @@
       <c r="J3" s="3">
         <v>11</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AB3" s="12">
         <v>19602</v>
       </c>
       <c r="AC3" s="11">
@@ -2961,8 +3957,20 @@
       <c r="AI3" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN3" s="11">
+        <f>H3/D3</f>
+        <v>2.3216783216783217</v>
+      </c>
+      <c r="AO3" s="11">
+        <f>I3/E3</f>
+        <v>1.0977366255144032</v>
+      </c>
+      <c r="AP3" s="11">
+        <f>J3/F3</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -2991,7 +3999,7 @@
       <c r="J4" s="3">
         <v>23</v>
       </c>
-      <c r="AB4" s="15">
+      <c r="AB4" s="12">
         <v>23137</v>
       </c>
       <c r="AC4" s="11">
@@ -3013,8 +4021,20 @@
       <c r="AI4" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN4" s="11">
+        <f>H4/D4</f>
+        <v>1.9403829416884246</v>
+      </c>
+      <c r="AO4" s="11">
+        <f>I4/E4</f>
+        <v>1.1187438665358194</v>
+      </c>
+      <c r="AP4" s="11">
+        <f>J4/F4</f>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3043,7 +4063,7 @@
       <c r="J5" s="3">
         <v>32</v>
       </c>
-      <c r="AB5" s="15">
+      <c r="AB5" s="12">
         <v>27508</v>
       </c>
       <c r="AC5" s="11">
@@ -3065,8 +4085,20 @@
       <c r="AI5" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN5" s="11">
+        <f>H5/D5</f>
+        <v>5.3852631578947365</v>
+      </c>
+      <c r="AO5" s="11">
+        <f>I5/E5</f>
+        <v>1.9574468085106382</v>
+      </c>
+      <c r="AP5" s="11">
+        <f>J5/F5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3095,7 +4127,7 @@
       <c r="J6" s="3">
         <v>14</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AB6" s="12">
         <v>29348</v>
       </c>
       <c r="AC6" s="11">
@@ -3117,8 +4149,20 @@
       <c r="AI6" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN6" s="11">
+        <f>H6/D6</f>
+        <v>1.9246537396121883</v>
+      </c>
+      <c r="AO6" s="11">
+        <f>I6/E6</f>
+        <v>0.46575716234652115</v>
+      </c>
+      <c r="AP6" s="11">
+        <f>J6/F6</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3147,7 +4191,7 @@
       <c r="J7" s="3">
         <v>33</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="AB7" s="12">
         <v>32499</v>
       </c>
       <c r="AC7" s="11">
@@ -3169,8 +4213,20 @@
       <c r="AI7" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN7" s="11">
+        <f>H7/D7</f>
+        <v>3.8643724696356276</v>
+      </c>
+      <c r="AO7" s="11">
+        <f>I7/E7</f>
+        <v>1.2799772144688124</v>
+      </c>
+      <c r="AP7" s="11">
+        <f>J7/F7</f>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3199,7 +4255,7 @@
       <c r="J8" s="3">
         <v>34</v>
       </c>
-      <c r="AB8" s="15">
+      <c r="AB8" s="12">
         <v>45927</v>
       </c>
       <c r="AC8" s="11">
@@ -3221,8 +4277,20 @@
       <c r="AI8" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN8" s="11">
+        <f>H8/D8</f>
+        <v>3.8843128181397502</v>
+      </c>
+      <c r="AO8" s="11">
+        <f>I8/E8</f>
+        <v>1.7840481565086532</v>
+      </c>
+      <c r="AP8" s="11">
+        <f>J8/F8</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -3251,7 +4319,7 @@
       <c r="J9" s="3">
         <v>21</v>
       </c>
-      <c r="AB9" s="15">
+      <c r="AB9" s="12">
         <v>51310</v>
       </c>
       <c r="AC9" s="11">
@@ -3273,8 +4341,20 @@
       <c r="AI9" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN9" s="11">
+        <f>H9/D9</f>
+        <v>2.1881631690639001</v>
+      </c>
+      <c r="AO9" s="11">
+        <f>I9/E9</f>
+        <v>1.3323092677931387</v>
+      </c>
+      <c r="AP9" s="11">
+        <f>J9/F9</f>
+        <v>1.3125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3303,7 +4383,7 @@
       <c r="J10" s="3">
         <v>40</v>
       </c>
-      <c r="AB10" s="15">
+      <c r="AB10" s="12">
         <v>53396</v>
       </c>
       <c r="AC10" s="11">
@@ -3325,8 +4405,20 @@
       <c r="AI10" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN10" s="11">
+        <f>H10/D10</f>
+        <v>3.5373291272344902</v>
+      </c>
+      <c r="AO10" s="11">
+        <f>I10/E10</f>
+        <v>2.332793334876186</v>
+      </c>
+      <c r="AP10" s="11">
+        <f>J10/F10</f>
+        <v>2.3529411764705883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -3355,7 +4447,7 @@
       <c r="J11" s="3">
         <v>38</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="AB11" s="12">
         <v>69430</v>
       </c>
       <c r="AC11" s="11">
@@ -3377,8 +4469,20 @@
       <c r="AI11" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN11" s="11">
+        <f>H11/D11</f>
+        <v>4.8709077380952381</v>
+      </c>
+      <c r="AO11" s="11">
+        <f>I11/E11</f>
+        <v>1.9019427872112591</v>
+      </c>
+      <c r="AP11" s="11">
+        <f>J11/F11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -3407,7 +4511,7 @@
       <c r="J12" s="3">
         <v>18</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="AB12" s="12">
         <v>70559</v>
       </c>
       <c r="AC12" s="11">
@@ -3429,8 +4533,20 @@
       <c r="AI12" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN12" s="11">
+        <f>H12/D12</f>
+        <v>1.8706368072063055</v>
+      </c>
+      <c r="AO12" s="11">
+        <f>I12/E12</f>
+        <v>0.91343626806833111</v>
+      </c>
+      <c r="AP12" s="11">
+        <f>J12/F12</f>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3459,7 +4575,7 @@
       <c r="J13" s="3">
         <v>27</v>
       </c>
-      <c r="AB13" s="15">
+      <c r="AB13" s="12">
         <v>71077</v>
       </c>
       <c r="AC13" s="11">
@@ -3481,8 +4597,20 @@
       <c r="AI13" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN13" s="11">
+        <f>H13/D13</f>
+        <v>3.6775930695387498</v>
+      </c>
+      <c r="AO13" s="11">
+        <f>I13/E13</f>
+        <v>1.4207024601578215</v>
+      </c>
+      <c r="AP13" s="11">
+        <f>J13/F13</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -3511,7 +4639,7 @@
       <c r="J14" s="3">
         <v>18</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="AB14" s="12">
         <v>84200</v>
       </c>
       <c r="AC14" s="11">
@@ -3533,8 +4661,20 @@
       <c r="AI14" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN14" s="11">
+        <f>H14/D14</f>
+        <v>4.5023255813953487</v>
+      </c>
+      <c r="AO14" s="11">
+        <f>I14/E14</f>
+        <v>1.2305685967657798</v>
+      </c>
+      <c r="AP14" s="11">
+        <f>J14/F14</f>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -3563,7 +4703,7 @@
       <c r="J15" s="3">
         <v>33</v>
       </c>
-      <c r="AB15" s="15">
+      <c r="AB15" s="12">
         <v>147606</v>
       </c>
       <c r="AC15" s="11">
@@ -3585,8 +4725,20 @@
       <c r="AI15" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN15" s="11">
+        <f>H15/D15</f>
+        <v>2.3775254954781606</v>
+      </c>
+      <c r="AO15" s="11">
+        <f>I15/E15</f>
+        <v>1.2233140759138275</v>
+      </c>
+      <c r="AP15" s="11">
+        <f>J15/F15</f>
+        <v>1.2222222222222223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -3615,7 +4767,7 @@
       <c r="J16" s="3">
         <v>48</v>
       </c>
-      <c r="AB16" s="15">
+      <c r="AB16" s="12">
         <v>161571</v>
       </c>
       <c r="AC16" s="11">
@@ -3637,8 +4789,20 @@
       <c r="AI16" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN16" s="11">
+        <f>H16/D16</f>
+        <v>3.1663519825101858</v>
+      </c>
+      <c r="AO16" s="11">
+        <f>I16/E16</f>
+        <v>3.1690130184680592</v>
+      </c>
+      <c r="AP16" s="11">
+        <f>J16/F16</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -3667,7 +4831,7 @@
       <c r="J17" s="3">
         <v>21</v>
       </c>
-      <c r="AB17" s="15">
+      <c r="AB17" s="12">
         <v>183485</v>
       </c>
       <c r="AC17" s="11">
@@ -3689,8 +4853,20 @@
       <c r="AI17" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN17" s="11">
+        <f>H17/D17</f>
+        <v>6.2908745247148286</v>
+      </c>
+      <c r="AO17" s="11">
+        <f>I17/E17</f>
+        <v>1.5930223563085015</v>
+      </c>
+      <c r="AP17" s="11">
+        <f>J17/F17</f>
+        <v>1.6153846153846154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -3719,7 +4895,7 @@
       <c r="J18" s="3">
         <v>36</v>
       </c>
-      <c r="AB18" s="15">
+      <c r="AB18" s="12">
         <v>185496</v>
       </c>
       <c r="AC18" s="11">
@@ -3741,8 +4917,20 @@
       <c r="AI18" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN18" s="11">
+        <f>H18/D18</f>
+        <v>4.5155683514608658</v>
+      </c>
+      <c r="AO18" s="11">
+        <f>I18/E18</f>
+        <v>1.0745027022438527</v>
+      </c>
+      <c r="AP18" s="11">
+        <f>J18/F18</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -3771,7 +4959,7 @@
       <c r="J19" s="3">
         <v>40</v>
       </c>
-      <c r="AB19" s="15">
+      <c r="AB19" s="12">
         <v>210614</v>
       </c>
       <c r="AC19" s="11">
@@ -3793,8 +4981,20 @@
       <c r="AI19" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN19" s="11">
+        <f>H19/D19</f>
+        <v>7.7251474765129995</v>
+      </c>
+      <c r="AO19" s="11">
+        <f>I19/E19</f>
+        <v>0.96549363275366284</v>
+      </c>
+      <c r="AP19" s="11">
+        <f>J19/F19</f>
+        <v>0.97560975609756095</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -3823,7 +5023,7 @@
       <c r="J20" s="3">
         <v>21</v>
       </c>
-      <c r="AB20" s="15">
+      <c r="AB20" s="12">
         <v>522483</v>
       </c>
       <c r="AC20" s="11">
@@ -3845,8 +5045,20 @@
       <c r="AI20" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN20" s="11">
+        <f>H20/D20</f>
+        <v>1.6465898432265844</v>
+      </c>
+      <c r="AO20" s="11">
+        <f>I20/E20</f>
+        <v>1.1371208661210983</v>
+      </c>
+      <c r="AP20" s="11">
+        <f>J20/F20</f>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -3875,7 +5087,7 @@
       <c r="J21" s="3">
         <v>10</v>
       </c>
-      <c r="AB21" s="15">
+      <c r="AB21" s="12">
         <v>630803</v>
       </c>
       <c r="AC21" s="11">
@@ -3897,8 +5109,20 @@
       <c r="AI21" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN21" s="11">
+        <f>H21/D21</f>
+        <v>1.2360855244794284</v>
+      </c>
+      <c r="AO21" s="11">
+        <f>I21/E21</f>
+        <v>0.54834251706881043</v>
+      </c>
+      <c r="AP21" s="11">
+        <f>J21/F21</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
@@ -3927,7 +5151,7 @@
       <c r="J22" s="3">
         <v>17</v>
       </c>
-      <c r="AB22" s="15">
+      <c r="AB22" s="12">
         <v>698340</v>
       </c>
       <c r="AC22" s="11">
@@ -3949,8 +5173,20 @@
       <c r="AI22" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN22" s="11">
+        <f>H22/D22</f>
+        <v>1.0246057074140882</v>
+      </c>
+      <c r="AO22" s="11">
+        <f>I22/E22</f>
+        <v>1.3146739041309303</v>
+      </c>
+      <c r="AP22" s="11">
+        <f>J22/F22</f>
+        <v>1.3076923076923077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -3979,7 +5215,7 @@
       <c r="J23" s="3">
         <v>15</v>
       </c>
-      <c r="AB23" s="15">
+      <c r="AB23" s="12">
         <v>844333</v>
       </c>
       <c r="AC23" s="11">
@@ -4001,8 +5237,20 @@
       <c r="AI23" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN23" s="11">
+        <f>H23/D23</f>
+        <v>1.2215910273217221</v>
+      </c>
+      <c r="AO23" s="11">
+        <f>I23/E23</f>
+        <v>0.87815294274656341</v>
+      </c>
+      <c r="AP23" s="11">
+        <f>J23/F23</f>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>35</v>
       </c>
@@ -4031,7 +5279,7 @@
       <c r="J24" s="3">
         <v>8</v>
       </c>
-      <c r="AB24" s="15">
+      <c r="AB24" s="12">
         <v>917945</v>
       </c>
       <c r="AC24" s="11">
@@ -4053,8 +5301,20 @@
       <c r="AI24" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN24" s="11">
+        <f>H24/D24</f>
+        <v>1.9719108362324442</v>
+      </c>
+      <c r="AO24" s="11">
+        <f>I24/E24</f>
+        <v>0.79924701074617832</v>
+      </c>
+      <c r="AP24" s="11">
+        <f>J24/F24</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -4083,7 +5343,7 @@
       <c r="J25" s="3">
         <v>20</v>
       </c>
-      <c r="AB25" s="15">
+      <c r="AB25" s="12">
         <v>952508</v>
       </c>
       <c r="AC25" s="11">
@@ -4105,8 +5365,20 @@
       <c r="AI25" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN25" s="11">
+        <f>H25/D25</f>
+        <v>1.7517995382316991</v>
+      </c>
+      <c r="AO25" s="11">
+        <f>I25/E25</f>
+        <v>1.8327122499965107</v>
+      </c>
+      <c r="AP25" s="11">
+        <f>J25/F25</f>
+        <v>1.8181818181818181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -4135,7 +5407,7 @@
       <c r="J26" s="3">
         <v>20</v>
       </c>
-      <c r="AB26" s="15">
+      <c r="AB26" s="12">
         <v>1010322</v>
       </c>
       <c r="AC26" s="11">
@@ -4157,8 +5429,20 @@
       <c r="AI26" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN26" s="11">
+        <f>H26/D26</f>
+        <v>1.6759852541033968</v>
+      </c>
+      <c r="AO26" s="11">
+        <f>I26/E26</f>
+        <v>0.69689781736071998</v>
+      </c>
+      <c r="AP26" s="11">
+        <f>J26/F26</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -4187,7 +5471,7 @@
       <c r="J27" s="3">
         <v>13</v>
       </c>
-      <c r="AB27" s="15">
+      <c r="AB27" s="12">
         <v>1011663</v>
       </c>
       <c r="AC27" s="11">
@@ -4209,8 +5493,20 @@
       <c r="AI27" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN27" s="11">
+        <f>H27/D27</f>
+        <v>1.6158931895500352</v>
+      </c>
+      <c r="AO27" s="11">
+        <f>I27/E27</f>
+        <v>0.60486141784452296</v>
+      </c>
+      <c r="AP27" s="11">
+        <f>J27/F27</f>
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -4239,7 +5535,7 @@
       <c r="J28" s="3">
         <v>11</v>
       </c>
-      <c r="AB28" s="15">
+      <c r="AB28" s="12">
         <v>1291932</v>
       </c>
       <c r="AC28" s="11">
@@ -4261,8 +5557,20 @@
       <c r="AI28" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AN28" s="11">
+        <f>H28/D28</f>
+        <v>1.6558037882467218</v>
+      </c>
+      <c r="AO28" s="11">
+        <f>I28/E28</f>
+        <v>0.53966942148760333</v>
+      </c>
+      <c r="AP28" s="11">
+        <f>J28/F28</f>
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
@@ -4291,7 +5599,7 @@
       <c r="J29" s="7">
         <v>15</v>
       </c>
-      <c r="AB29" s="16">
+      <c r="AB29" s="13">
         <v>1360218</v>
       </c>
       <c r="AC29" s="8">
@@ -4313,20 +5621,80 @@
       <c r="AI29" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="D30" s="12" t="s">
+      <c r="AN29" s="11">
+        <f>H29/D29</f>
+        <v>1.566364247311828</v>
+      </c>
+      <c r="AO29" s="11">
+        <f>I29/E29</f>
+        <v>0.66829354169319855</v>
+      </c>
+      <c r="AP29" s="11">
+        <f>J29/F29</f>
+        <v>0.68181818181818177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="D30" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="H30" s="12" t="s">
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="H30" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="37" spans="27:37" x14ac:dyDescent="0.3">
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="34" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C34" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="11">
+        <v>12753</v>
+      </c>
+      <c r="E37" s="11">
+        <v>4.2229038854805729</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0.96897810218978098</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3"/>
       <c r="AA37" s="11"/>
       <c r="AB37" s="11"/>
       <c r="AC37" s="11"/>
@@ -4339,7 +5707,21 @@
       <c r="AJ37" s="11"/>
       <c r="AK37" s="11"/>
     </row>
-    <row r="38" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="11">
+        <v>19602</v>
+      </c>
+      <c r="E38" s="11">
+        <v>2.3216783216783199</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1.0977366255144032</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H38" s="3"/>
       <c r="AA38" s="11"/>
       <c r="AB38" s="11"/>
       <c r="AC38" s="11"/>
@@ -4352,7 +5734,21 @@
       <c r="AJ38" s="11"/>
       <c r="AK38" s="11"/>
     </row>
-    <row r="39" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="11">
+        <v>23137</v>
+      </c>
+      <c r="E39" s="11">
+        <v>1.9403829416884246</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1.1187438665358194</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H39" s="3"/>
       <c r="AA39" s="11"/>
       <c r="AB39" s="11"/>
       <c r="AC39" s="11"/>
@@ -4365,7 +5761,21 @@
       <c r="AJ39" s="11"/>
       <c r="AK39" s="11"/>
     </row>
-    <row r="40" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+      <c r="D40" s="11">
+        <v>27508</v>
+      </c>
+      <c r="E40" s="11">
+        <v>5.3852631578947365</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1.9574468085106382</v>
+      </c>
+      <c r="G40" s="11">
+        <v>2</v>
+      </c>
+      <c r="H40" s="3"/>
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
       <c r="AC40" s="11"/>
@@ -4378,7 +5788,21 @@
       <c r="AJ40" s="11"/>
       <c r="AK40" s="11"/>
     </row>
-    <row r="41" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+      <c r="D41" s="11">
+        <v>29348</v>
+      </c>
+      <c r="E41" s="11">
+        <v>1.9246537396121883</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0.46575716234652115</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="3"/>
       <c r="AA41" s="11"/>
       <c r="AB41" s="11"/>
       <c r="AC41" s="11"/>
@@ -4391,7 +5815,21 @@
       <c r="AJ41" s="11"/>
       <c r="AK41" s="11"/>
     </row>
-    <row r="42" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+      <c r="D42" s="11">
+        <v>32499</v>
+      </c>
+      <c r="E42" s="11">
+        <v>3.8643724696356276</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1.2799772144688124</v>
+      </c>
+      <c r="G42" s="11">
+        <v>1.32</v>
+      </c>
+      <c r="H42" s="3"/>
       <c r="AA42" s="11"/>
       <c r="AB42" s="11"/>
       <c r="AC42" s="11"/>
@@ -4404,7 +5842,21 @@
       <c r="AJ42" s="11"/>
       <c r="AK42" s="11"/>
     </row>
-    <row r="43" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C43" s="2"/>
+      <c r="D43" s="11">
+        <v>45927</v>
+      </c>
+      <c r="E43" s="11">
+        <v>3.8843128181397502</v>
+      </c>
+      <c r="F43" s="11">
+        <v>1.7840481565086532</v>
+      </c>
+      <c r="G43" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="H43" s="3"/>
       <c r="AA43" s="11"/>
       <c r="AB43" s="11"/>
       <c r="AC43" s="11"/>
@@ -4417,7 +5869,21 @@
       <c r="AJ43" s="11"/>
       <c r="AK43" s="11"/>
     </row>
-    <row r="44" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C44" s="2"/>
+      <c r="D44" s="11">
+        <v>51310</v>
+      </c>
+      <c r="E44" s="11">
+        <v>2.1881631690639001</v>
+      </c>
+      <c r="F44" s="11">
+        <v>1.3323092677931387</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1.3125</v>
+      </c>
+      <c r="H44" s="3"/>
       <c r="AA44" s="11"/>
       <c r="AB44" s="11"/>
       <c r="AC44" s="11"/>
@@ -4430,7 +5896,21 @@
       <c r="AJ44" s="11"/>
       <c r="AK44" s="11"/>
     </row>
-    <row r="45" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C45" s="2"/>
+      <c r="D45" s="11">
+        <v>53396</v>
+      </c>
+      <c r="E45" s="11">
+        <v>3.5373291272344902</v>
+      </c>
+      <c r="F45" s="11">
+        <v>2.332793334876186</v>
+      </c>
+      <c r="G45" s="11">
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="H45" s="3"/>
       <c r="AA45" s="11"/>
       <c r="AB45" s="11"/>
       <c r="AC45" s="11"/>
@@ -4443,7 +5923,21 @@
       <c r="AJ45" s="11"/>
       <c r="AK45" s="11"/>
     </row>
-    <row r="46" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C46" s="2"/>
+      <c r="D46" s="11">
+        <v>69430</v>
+      </c>
+      <c r="E46" s="11">
+        <v>4.8709077380952381</v>
+      </c>
+      <c r="F46" s="11">
+        <v>1.9019427872112591</v>
+      </c>
+      <c r="G46" s="11">
+        <v>2</v>
+      </c>
+      <c r="H46" s="3"/>
       <c r="AA46" s="11"/>
       <c r="AB46" s="11"/>
       <c r="AC46" s="11"/>
@@ -4456,7 +5950,21 @@
       <c r="AJ46" s="11"/>
       <c r="AK46" s="11"/>
     </row>
-    <row r="47" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C47" s="2"/>
+      <c r="D47" s="11">
+        <v>70559</v>
+      </c>
+      <c r="E47" s="11">
+        <v>1.8706368072063055</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0.91343626806833111</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="H47" s="3"/>
       <c r="AA47" s="11"/>
       <c r="AB47" s="11"/>
       <c r="AC47" s="11"/>
@@ -4469,7 +5977,21 @@
       <c r="AJ47" s="11"/>
       <c r="AK47" s="11"/>
     </row>
-    <row r="48" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C48" s="2"/>
+      <c r="D48" s="11">
+        <v>71077</v>
+      </c>
+      <c r="E48" s="11">
+        <v>3.6775930695387498</v>
+      </c>
+      <c r="F48" s="11">
+        <v>1.4207024601578215</v>
+      </c>
+      <c r="G48" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="H48" s="3"/>
       <c r="AA48" s="11"/>
       <c r="AB48" s="11"/>
       <c r="AC48" s="11"/>
@@ -4482,7 +6004,21 @@
       <c r="AJ48" s="11"/>
       <c r="AK48" s="11"/>
     </row>
-    <row r="49" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C49" s="2"/>
+      <c r="D49" s="11">
+        <v>84200</v>
+      </c>
+      <c r="E49" s="11">
+        <v>4.5023255813953487</v>
+      </c>
+      <c r="F49" s="11">
+        <v>1.2305685967657798</v>
+      </c>
+      <c r="G49" s="11">
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="H49" s="3"/>
       <c r="AA49" s="11"/>
       <c r="AB49" s="11"/>
       <c r="AC49" s="11"/>
@@ -4495,7 +6031,21 @@
       <c r="AJ49" s="11"/>
       <c r="AK49" s="11"/>
     </row>
-    <row r="50" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C50" s="2"/>
+      <c r="D50" s="11">
+        <v>147606</v>
+      </c>
+      <c r="E50" s="11">
+        <v>2.3775254954781606</v>
+      </c>
+      <c r="F50" s="11">
+        <v>1.2233140759138275</v>
+      </c>
+      <c r="G50" s="11">
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="H50" s="3"/>
       <c r="AA50" s="11"/>
       <c r="AB50" s="11"/>
       <c r="AC50" s="11"/>
@@ -4508,7 +6058,21 @@
       <c r="AJ50" s="11"/>
       <c r="AK50" s="11"/>
     </row>
-    <row r="51" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C51" s="2"/>
+      <c r="D51" s="11">
+        <v>161571</v>
+      </c>
+      <c r="E51" s="11">
+        <v>3.1663519825101858</v>
+      </c>
+      <c r="F51" s="11">
+        <v>3.1690130184680592</v>
+      </c>
+      <c r="G51" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="H51" s="3"/>
       <c r="AA51" s="11"/>
       <c r="AB51" s="11"/>
       <c r="AC51" s="11"/>
@@ -4521,7 +6085,21 @@
       <c r="AJ51" s="11"/>
       <c r="AK51" s="11"/>
     </row>
-    <row r="52" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C52" s="2"/>
+      <c r="D52" s="11">
+        <v>183485</v>
+      </c>
+      <c r="E52" s="11">
+        <v>6.2908745247148286</v>
+      </c>
+      <c r="F52" s="11">
+        <v>1.5930223563085015</v>
+      </c>
+      <c r="G52" s="11">
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="H52" s="3"/>
       <c r="AA52" s="11"/>
       <c r="AB52" s="11"/>
       <c r="AC52" s="11"/>
@@ -4534,7 +6112,21 @@
       <c r="AJ52" s="11"/>
       <c r="AK52" s="11"/>
     </row>
-    <row r="53" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C53" s="2"/>
+      <c r="D53" s="11">
+        <v>185496</v>
+      </c>
+      <c r="E53" s="11">
+        <v>4.5155683514608658</v>
+      </c>
+      <c r="F53" s="11">
+        <v>1.0745027022438527</v>
+      </c>
+      <c r="G53" s="11">
+        <v>1.125</v>
+      </c>
+      <c r="H53" s="3"/>
       <c r="AA53" s="11"/>
       <c r="AB53" s="11"/>
       <c r="AC53" s="11"/>
@@ -4547,7 +6139,21 @@
       <c r="AJ53" s="11"/>
       <c r="AK53" s="11"/>
     </row>
-    <row r="54" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C54" s="2"/>
+      <c r="D54" s="11">
+        <v>210614</v>
+      </c>
+      <c r="E54" s="11">
+        <v>7.7251474765129995</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0.96549363275366284</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="H54" s="3"/>
       <c r="AA54" s="11"/>
       <c r="AB54" s="11"/>
       <c r="AC54" s="11"/>
@@ -4560,7 +6166,21 @@
       <c r="AJ54" s="11"/>
       <c r="AK54" s="11"/>
     </row>
-    <row r="55" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C55" s="2"/>
+      <c r="D55" s="11">
+        <v>522483</v>
+      </c>
+      <c r="E55" s="11">
+        <v>1.566364247311828</v>
+      </c>
+      <c r="F55" s="11">
+        <v>0.66829354169319855</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="H55" s="3"/>
       <c r="AA55" s="11"/>
       <c r="AB55" s="11"/>
       <c r="AC55" s="11"/>
@@ -4573,7 +6193,21 @@
       <c r="AJ55" s="11"/>
       <c r="AK55" s="11"/>
     </row>
-    <row r="56" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C56" s="2"/>
+      <c r="D56" s="11">
+        <v>630803</v>
+      </c>
+      <c r="E56" s="11">
+        <v>1.6158931895500352</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0.60486141784452296</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="H56" s="3"/>
       <c r="AA56" s="11"/>
       <c r="AB56" s="11"/>
       <c r="AC56" s="11"/>
@@ -4586,7 +6220,21 @@
       <c r="AJ56" s="11"/>
       <c r="AK56" s="11"/>
     </row>
-    <row r="57" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C57" s="2"/>
+      <c r="D57" s="11">
+        <v>698340</v>
+      </c>
+      <c r="E57" s="11">
+        <v>1.6558037882467218</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0.53966942148760333</v>
+      </c>
+      <c r="G57" s="11">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="H57" s="3"/>
       <c r="AA57" s="11"/>
       <c r="AB57" s="11"/>
       <c r="AC57" s="11"/>
@@ -4599,7 +6247,21 @@
       <c r="AJ57" s="11"/>
       <c r="AK57" s="11"/>
     </row>
-    <row r="58" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C58" s="2"/>
+      <c r="D58" s="11">
+        <v>844333</v>
+      </c>
+      <c r="E58" s="11">
+        <v>1.9719108362324442</v>
+      </c>
+      <c r="F58" s="11">
+        <v>0.79924701074617832</v>
+      </c>
+      <c r="G58" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="H58" s="3"/>
       <c r="AA58" s="11"/>
       <c r="AB58" s="11"/>
       <c r="AC58" s="11"/>
@@ -4612,7 +6274,21 @@
       <c r="AJ58" s="11"/>
       <c r="AK58" s="11"/>
     </row>
-    <row r="59" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C59" s="2"/>
+      <c r="D59" s="11">
+        <v>917945</v>
+      </c>
+      <c r="E59" s="11">
+        <v>1.2360855244794284</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0.54834251706881043</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H59" s="3"/>
       <c r="AA59" s="11"/>
       <c r="AB59" s="11"/>
       <c r="AC59" s="11"/>
@@ -4625,7 +6301,21 @@
       <c r="AJ59" s="11"/>
       <c r="AK59" s="11"/>
     </row>
-    <row r="60" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C60" s="2"/>
+      <c r="D60" s="11">
+        <v>952508</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1.7517995382316991</v>
+      </c>
+      <c r="F60" s="11">
+        <v>1.8327122499965107</v>
+      </c>
+      <c r="G60" s="11">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="H60" s="3"/>
       <c r="AA60" s="11"/>
       <c r="AB60" s="11"/>
       <c r="AC60" s="11"/>
@@ -4638,7 +6328,21 @@
       <c r="AJ60" s="11"/>
       <c r="AK60" s="11"/>
     </row>
-    <row r="61" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C61" s="2"/>
+      <c r="D61" s="11">
+        <v>1010322</v>
+      </c>
+      <c r="E61" s="11">
+        <v>1.6465898432265844</v>
+      </c>
+      <c r="F61" s="11">
+        <v>1.1371208661210983</v>
+      </c>
+      <c r="G61" s="11">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="H61" s="3"/>
       <c r="AA61" s="11"/>
       <c r="AB61" s="11"/>
       <c r="AC61" s="11"/>
@@ -4651,7 +6355,21 @@
       <c r="AJ61" s="11"/>
       <c r="AK61" s="11"/>
     </row>
-    <row r="62" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C62" s="2"/>
+      <c r="D62" s="11">
+        <v>1011663</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1.0246057074140882</v>
+      </c>
+      <c r="F62" s="11">
+        <v>1.3146739041309303</v>
+      </c>
+      <c r="G62" s="11">
+        <v>1.3076923076923077</v>
+      </c>
+      <c r="H62" s="3"/>
       <c r="AA62" s="11"/>
       <c r="AB62" s="11"/>
       <c r="AC62" s="11"/>
@@ -4664,7 +6382,21 @@
       <c r="AJ62" s="11"/>
       <c r="AK62" s="11"/>
     </row>
-    <row r="63" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C63" s="2"/>
+      <c r="D63" s="11">
+        <v>1291932</v>
+      </c>
+      <c r="E63" s="11">
+        <v>1.6759852541033968</v>
+      </c>
+      <c r="F63" s="11">
+        <v>0.69689781736071998</v>
+      </c>
+      <c r="G63" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H63" s="3"/>
       <c r="AA63" s="11"/>
       <c r="AB63" s="11"/>
       <c r="AC63" s="11"/>
@@ -4677,7 +6409,21 @@
       <c r="AJ63" s="11"/>
       <c r="AK63" s="11"/>
     </row>
-    <row r="64" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C64" s="2"/>
+      <c r="D64" s="11">
+        <v>1360218</v>
+      </c>
+      <c r="E64" s="11">
+        <v>1.2215910273217221</v>
+      </c>
+      <c r="F64" s="11">
+        <v>0.87815294274656341</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="H64" s="3"/>
       <c r="AA64" s="11"/>
       <c r="AB64" s="11"/>
       <c r="AC64" s="11"/>
@@ -4690,7 +6436,13 @@
       <c r="AJ64" s="11"/>
       <c r="AK64" s="11"/>
     </row>
-    <row r="65" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C65" s="2"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="3"/>
       <c r="AA65" s="11"/>
       <c r="AB65" s="11"/>
       <c r="AC65" s="11"/>
@@ -4703,7 +6455,13 @@
       <c r="AJ65" s="11"/>
       <c r="AK65" s="11"/>
     </row>
-    <row r="66" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C66" s="2"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="3"/>
       <c r="AA66" s="11"/>
       <c r="AB66" s="11"/>
       <c r="AC66" s="11"/>
@@ -4716,7 +6474,19 @@
       <c r="AJ66" s="11"/>
       <c r="AK66" s="11"/>
     </row>
-    <row r="67" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C67" s="2"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="3"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11"/>
+      <c r="X67" s="11"/>
       <c r="AA67" s="11"/>
       <c r="AB67" s="11"/>
       <c r="AC67" s="11"/>
@@ -4729,7 +6499,30 @@
       <c r="AJ67" s="11"/>
       <c r="AK67" s="11"/>
     </row>
-    <row r="68" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11">
+        <f>MIN(E37:E64)</f>
+        <v>1.0246057074140882</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" ref="F68:G68" si="0">MIN(F37:F64)</f>
+        <v>0.46575716234652115</v>
+      </c>
+      <c r="G68" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
       <c r="AA68" s="11"/>
       <c r="AB68" s="11"/>
       <c r="AC68" s="11"/>
@@ -4742,7 +6535,31 @@
       <c r="AJ68" s="11"/>
       <c r="AK68" s="11"/>
     </row>
-    <row r="69" spans="27:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11">
+        <f>MAX(E37:E64)</f>
+        <v>7.7251474765129995</v>
+      </c>
+      <c r="F69" s="11">
+        <f t="shared" ref="F69:G69" si="1">MAX(F37:F64)</f>
+        <v>3.1690130184680592</v>
+      </c>
+      <c r="G69" s="11">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
       <c r="AA69" s="11"/>
       <c r="AB69" s="11"/>
       <c r="AC69" s="11"/>
@@ -4755,14 +6572,676 @@
       <c r="AJ69" s="11"/>
       <c r="AK69" s="11"/>
     </row>
+    <row r="70" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11">
+        <f>AVERAGE(E37:E64)</f>
+        <v>2.9868792719092356</v>
+      </c>
+      <c r="F70" s="11">
+        <f t="shared" ref="F70:G70" si="2">AVERAGE(F37:F64)</f>
+        <v>1.2446342187796851</v>
+      </c>
+      <c r="G70" s="11">
+        <f t="shared" si="2"/>
+        <v>1.2617332770555971</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="11"/>
+      <c r="X70" s="11"/>
+    </row>
+    <row r="71" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8">
+        <f xml:space="preserve"> _xlfn.STDEV.S(E37:E64)</f>
+        <v>1.6987050700425577</v>
+      </c>
+      <c r="F71" s="8">
+        <f t="shared" ref="F71:G71" si="3" xml:space="preserve"> _xlfn.STDEV.S(F37:F64)</f>
+        <v>0.60660863776564333</v>
+      </c>
+      <c r="G71" s="8">
+        <f t="shared" si="3"/>
+        <v>0.61255588975794295</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="11"/>
+      <c r="X71" s="11"/>
+    </row>
+    <row r="72" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="X72" s="11"/>
+    </row>
+    <row r="73" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="X73" s="11"/>
+    </row>
+    <row r="74" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="X74" s="11"/>
+    </row>
+    <row r="75" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="X75" s="11"/>
+    </row>
+    <row r="76" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="X76" s="11"/>
+    </row>
+    <row r="77" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="X77" s="11"/>
+    </row>
+    <row r="78" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="X78" s="11"/>
+    </row>
+    <row r="79" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="X79" s="11"/>
+    </row>
+    <row r="80" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="X80" s="11"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="X81" s="11"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="11">
+        <f>H2/D2</f>
+        <v>4.2229038854805729</v>
+      </c>
+      <c r="D82" s="11">
+        <f t="shared" ref="D82:E97" si="4">I2/E2</f>
+        <v>0.96897810218978098</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="X82" s="11"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="11">
+        <f t="shared" ref="C83:C108" si="5">H3/D3</f>
+        <v>2.3216783216783217</v>
+      </c>
+      <c r="D83" s="11">
+        <f t="shared" si="4"/>
+        <v>1.0977366255144032</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="X83" s="11"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="11">
+        <f t="shared" si="5"/>
+        <v>1.9403829416884246</v>
+      </c>
+      <c r="D84" s="11">
+        <f t="shared" si="4"/>
+        <v>1.1187438665358194</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" si="4"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="X84" s="11"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="11">
+        <f t="shared" si="5"/>
+        <v>5.3852631578947365</v>
+      </c>
+      <c r="D85" s="11">
+        <f t="shared" si="4"/>
+        <v>1.9574468085106382</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="X85" s="11"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="11">
+        <f t="shared" si="5"/>
+        <v>1.9246537396121883</v>
+      </c>
+      <c r="D86" s="11">
+        <f t="shared" si="4"/>
+        <v>0.46575716234652115</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="X86" s="11"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="11">
+        <f t="shared" si="5"/>
+        <v>3.8643724696356276</v>
+      </c>
+      <c r="D87" s="11">
+        <f t="shared" si="4"/>
+        <v>1.2799772144688124</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" si="4"/>
+        <v>1.32</v>
+      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="X87" s="11"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="11">
+        <f t="shared" si="5"/>
+        <v>3.8843128181397502</v>
+      </c>
+      <c r="D88" s="11">
+        <f t="shared" si="4"/>
+        <v>1.7840481565086532</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" si="4"/>
+        <v>1.7</v>
+      </c>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="X88" s="11"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="11">
+        <f t="shared" si="5"/>
+        <v>2.1881631690639001</v>
+      </c>
+      <c r="D89" s="11">
+        <f t="shared" si="4"/>
+        <v>1.3323092677931387</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" si="4"/>
+        <v>1.3125</v>
+      </c>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="X89" s="11"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="11">
+        <f t="shared" si="5"/>
+        <v>3.5373291272344902</v>
+      </c>
+      <c r="D90" s="11">
+        <f t="shared" si="4"/>
+        <v>2.332793334876186</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="4"/>
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="X90" s="11"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="11">
+        <f t="shared" si="5"/>
+        <v>4.8709077380952381</v>
+      </c>
+      <c r="D91" s="11">
+        <f t="shared" si="4"/>
+        <v>1.9019427872112591</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="X91" s="11"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="11">
+        <f t="shared" si="5"/>
+        <v>1.8706368072063055</v>
+      </c>
+      <c r="D92" s="11">
+        <f t="shared" si="4"/>
+        <v>0.91343626806833111</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="4"/>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="X92" s="11"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="11">
+        <f t="shared" si="5"/>
+        <v>3.6775930695387498</v>
+      </c>
+      <c r="D93" s="11">
+        <f t="shared" si="4"/>
+        <v>1.4207024601578215</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="X93" s="11"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="11">
+        <f t="shared" si="5"/>
+        <v>4.5023255813953487</v>
+      </c>
+      <c r="D94" s="11">
+        <f t="shared" si="4"/>
+        <v>1.2305685967657798</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" si="4"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="X94" s="11"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" s="11">
+        <f t="shared" si="5"/>
+        <v>2.3775254954781606</v>
+      </c>
+      <c r="D95" s="11">
+        <f t="shared" si="4"/>
+        <v>1.2233140759138275</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="4"/>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="X95" s="11"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="11">
+        <f t="shared" si="5"/>
+        <v>3.1663519825101858</v>
+      </c>
+      <c r="D96" s="11">
+        <f t="shared" si="4"/>
+        <v>3.1690130184680592</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="X96" s="11"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="11">
+        <f t="shared" si="5"/>
+        <v>6.2908745247148286</v>
+      </c>
+      <c r="D97" s="11">
+        <f t="shared" si="4"/>
+        <v>1.5930223563085015</v>
+      </c>
+      <c r="E97" s="11">
+        <f t="shared" si="4"/>
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="X97" s="11"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="11">
+        <f t="shared" si="5"/>
+        <v>4.5155683514608658</v>
+      </c>
+      <c r="D98" s="11">
+        <f t="shared" ref="D98:D109" si="6">I18/E18</f>
+        <v>1.0745027022438527</v>
+      </c>
+      <c r="E98" s="11">
+        <f t="shared" ref="E98:E109" si="7">J18/F18</f>
+        <v>1.125</v>
+      </c>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="X98" s="11"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="11">
+        <f t="shared" si="5"/>
+        <v>7.7251474765129995</v>
+      </c>
+      <c r="D99" s="11">
+        <f t="shared" si="6"/>
+        <v>0.96549363275366284</v>
+      </c>
+      <c r="E99" s="11">
+        <f t="shared" si="7"/>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" s="11">
+        <f t="shared" si="5"/>
+        <v>1.6465898432265844</v>
+      </c>
+      <c r="D100" s="11">
+        <f t="shared" si="6"/>
+        <v>1.1371208661210983</v>
+      </c>
+      <c r="E100" s="11">
+        <f t="shared" si="7"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2360855244794284</v>
+      </c>
+      <c r="D101" s="11">
+        <f t="shared" si="6"/>
+        <v>0.54834251706881043</v>
+      </c>
+      <c r="E101" s="11">
+        <f t="shared" si="7"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="11">
+        <f t="shared" si="5"/>
+        <v>1.0246057074140882</v>
+      </c>
+      <c r="D102" s="11">
+        <f t="shared" si="6"/>
+        <v>1.3146739041309303</v>
+      </c>
+      <c r="E102" s="11">
+        <f t="shared" si="7"/>
+        <v>1.3076923076923077</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2215910273217221</v>
+      </c>
+      <c r="D103" s="11">
+        <f t="shared" si="6"/>
+        <v>0.87815294274656341</v>
+      </c>
+      <c r="E103" s="11">
+        <f t="shared" si="7"/>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C104" s="11">
+        <f t="shared" si="5"/>
+        <v>1.9719108362324442</v>
+      </c>
+      <c r="D104" s="11">
+        <f t="shared" si="6"/>
+        <v>0.79924701074617832</v>
+      </c>
+      <c r="E104" s="11">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="11">
+        <f t="shared" si="5"/>
+        <v>1.7517995382316991</v>
+      </c>
+      <c r="D105" s="11">
+        <f t="shared" si="6"/>
+        <v>1.8327122499965107</v>
+      </c>
+      <c r="E105" s="11">
+        <f t="shared" si="7"/>
+        <v>1.8181818181818181</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="11">
+        <f t="shared" si="5"/>
+        <v>1.6759852541033968</v>
+      </c>
+      <c r="D106" s="11">
+        <f t="shared" si="6"/>
+        <v>0.69689781736071998</v>
+      </c>
+      <c r="E106" s="11">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="11">
+        <f t="shared" si="5"/>
+        <v>1.6158931895500352</v>
+      </c>
+      <c r="D107" s="11">
+        <f t="shared" si="6"/>
+        <v>0.60486141784452296</v>
+      </c>
+      <c r="E107" s="11">
+        <f t="shared" si="7"/>
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="11">
+        <f t="shared" si="5"/>
+        <v>1.6558037882467218</v>
+      </c>
+      <c r="D108" s="11">
+        <f t="shared" si="6"/>
+        <v>0.53966942148760333</v>
+      </c>
+      <c r="E108" s="11">
+        <f t="shared" si="7"/>
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C109" s="11">
+        <f>H29/D29</f>
+        <v>1.566364247311828</v>
+      </c>
+      <c r="D109" s="11">
+        <f t="shared" si="6"/>
+        <v>0.66829354169319855</v>
+      </c>
+      <c r="E109" s="11">
+        <f t="shared" si="7"/>
+        <v>0.68181818181818177</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="AB2:AI29">
-    <sortCondition ref="AB2:AB29"/>
+  <sortState ref="D37:G64">
+    <sortCondition ref="D71:D98"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="C34:H34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
